--- a/track_results/demo_tracktor_and_jde10/summary_demo_tracktor_and_jde10.xlsx
+++ b/track_results/demo_tracktor_and_jde10/summary_demo_tracktor_and_jde10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -650,362 +650,305 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>MOT17-05-SDP</t>
+          <t>MOT17-09-SDP</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.5018554900676708</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.599166015115976</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.4317370892018779</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.684319248826291</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.9497002866823039</v>
       </c>
       <c r="G4" t="n">
-        <v>133</v>
+        <v>26</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J4" t="n">
-        <v>133</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>5664</v>
+        <v>193</v>
       </c>
       <c r="L4" t="n">
-        <v>6917</v>
+        <v>1681</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.8188521035130838</v>
-      </c>
-      <c r="P4" t="inlineStr"/>
+        <v>0.6353051643192489</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.1624184281164919</v>
+      </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>MOT17-09-SDP</t>
+          <t>MOT17-10-SDP</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5018554900676708</v>
+        <v>0.3843589215888043</v>
       </c>
       <c r="C5" t="n">
-        <v>0.599166015115976</v>
+        <v>0.4075593575418994</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4317370892018779</v>
+        <v>0.3636576057325337</v>
       </c>
       <c r="E5" t="n">
-        <v>0.684319248826291</v>
+        <v>0.7184360152659864</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9497002866823039</v>
+        <v>0.8051675977653632</v>
       </c>
       <c r="G5" t="n">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I5" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
-        <v>193</v>
+        <v>2232</v>
       </c>
       <c r="L5" t="n">
-        <v>1681</v>
+        <v>3615</v>
       </c>
       <c r="M5" t="n">
-        <v>68</v>
+        <v>456</v>
       </c>
       <c r="N5" t="n">
-        <v>73</v>
+        <v>488</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6353051643192489</v>
+        <v>0.5090739154139731</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1624184281164919</v>
+        <v>0.2344825111441781</v>
       </c>
       <c r="Q5" t="n">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="R5" t="n">
-        <v>64</v>
+        <v>376</v>
       </c>
       <c r="S5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>MOT17-10-SDP</t>
+          <t>MOT17-11-SDP</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3843589215888043</v>
+        <v>0.537773569023569</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4075593575418994</v>
+        <v>0.5339531968240702</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3636576057325337</v>
+        <v>0.5416490038151759</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7184360152659864</v>
+        <v>0.794616362865621</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8051675977653632</v>
+        <v>0.7833263685750105</v>
       </c>
       <c r="G6" t="n">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="H6" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I6" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K6" t="n">
-        <v>2232</v>
+        <v>2074</v>
       </c>
       <c r="L6" t="n">
-        <v>3615</v>
+        <v>1938</v>
       </c>
       <c r="M6" t="n">
-        <v>456</v>
+        <v>133</v>
       </c>
       <c r="N6" t="n">
-        <v>488</v>
+        <v>141</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5090739154139731</v>
+        <v>0.5607248834251801</v>
       </c>
       <c r="P6" t="n">
-        <v>0.2344825111441781</v>
+        <v>0.1619831119049928</v>
       </c>
       <c r="Q6" t="n">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="R6" t="n">
-        <v>376</v>
+        <v>121</v>
       </c>
       <c r="S6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>MOT17-11-SDP</t>
+          <t>MOT17-13-SDP</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.537773569023569</v>
+        <v>0.4131475465891605</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5339531968240702</v>
+        <v>0.4111791730474732</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5416490038151759</v>
+        <v>0.4151348565538567</v>
       </c>
       <c r="E7" t="n">
-        <v>0.794616362865621</v>
+        <v>0.6662085552310599</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7833263685750105</v>
+        <v>0.6598604730304577</v>
       </c>
       <c r="G7" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="H7" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I7" t="n">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K7" t="n">
-        <v>2074</v>
+        <v>3998</v>
       </c>
       <c r="L7" t="n">
-        <v>1938</v>
+        <v>3886</v>
       </c>
       <c r="M7" t="n">
-        <v>133</v>
+        <v>708</v>
       </c>
       <c r="N7" t="n">
-        <v>141</v>
+        <v>605</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5607248834251801</v>
+        <v>0.2619824772375881</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1619831119049928</v>
+        <v>0.2464083541438611</v>
       </c>
       <c r="Q7" t="n">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="R7" t="n">
-        <v>121</v>
+        <v>613</v>
       </c>
       <c r="S7" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>MOT17-13-SDP</t>
+          <t>OVERALL</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4131475465891605</v>
+        <v>0.5161089247510631</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4111791730474732</v>
+        <v>0.5820792374143581</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4151348565538567</v>
+        <v>0.4635699373695198</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6662085552310599</v>
+        <v>0.6826627443537673</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6598604730304577</v>
+        <v>0.8571820077450104</v>
       </c>
       <c r="G8" t="n">
-        <v>110</v>
+        <v>413</v>
       </c>
       <c r="H8" t="n">
-        <v>29</v>
+        <v>141</v>
       </c>
       <c r="I8" t="n">
-        <v>66</v>
+        <v>216</v>
       </c>
       <c r="J8" t="n">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="K8" t="n">
-        <v>3998</v>
+        <v>11986</v>
       </c>
       <c r="L8" t="n">
-        <v>3886</v>
+        <v>33441</v>
       </c>
       <c r="M8" t="n">
-        <v>708</v>
+        <v>1719</v>
       </c>
       <c r="N8" t="n">
-        <v>605</v>
+        <v>1820</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2619824772375881</v>
+        <v>0.5526096033402923</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2464083541438611</v>
+        <v>0.1931729361726729</v>
       </c>
       <c r="Q8" t="n">
-        <v>110</v>
+        <v>256</v>
       </c>
       <c r="R8" t="n">
-        <v>613</v>
+        <v>1488</v>
       </c>
       <c r="S8" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>OVERALL</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.4839463855839434</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.54527899630535</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.4350160734480886</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.6406137296633035</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.8029892062641619</v>
-      </c>
-      <c r="G9" t="n">
-        <v>546</v>
-      </c>
-      <c r="H9" t="n">
-        <v>141</v>
-      </c>
-      <c r="I9" t="n">
-        <v>216</v>
-      </c>
-      <c r="J9" t="n">
-        <v>189</v>
-      </c>
-      <c r="K9" t="n">
-        <v>17650</v>
-      </c>
-      <c r="L9" t="n">
-        <v>40358</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1719</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1820</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.4681336099806762</v>
-      </c>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="n">
-        <v>256</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1488</v>
-      </c>
-      <c r="S9" t="n">
         <v>33</v>
       </c>
     </row>
